--- a/Code/Results/Cases/Case_4_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_128/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007726909659709</v>
+        <v>1.053279369324243</v>
       </c>
       <c r="D2">
-        <v>1.02137362868094</v>
+        <v>1.052026283836328</v>
       </c>
       <c r="E2">
-        <v>1.015851191325141</v>
+        <v>1.056960664408924</v>
       </c>
       <c r="F2">
-        <v>0.9849885429838096</v>
+        <v>1.05224569416336</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046536455291536</v>
+        <v>1.047820075865529</v>
       </c>
       <c r="J2">
-        <v>1.029678941057487</v>
+        <v>1.058297547625609</v>
       </c>
       <c r="K2">
-        <v>1.03254301399596</v>
+        <v>1.054776156228006</v>
       </c>
       <c r="L2">
-        <v>1.02709402402026</v>
+        <v>1.059696942303818</v>
       </c>
       <c r="M2">
-        <v>0.9966610500342513</v>
+        <v>1.054994959132021</v>
       </c>
       <c r="N2">
-        <v>1.031141203259613</v>
+        <v>1.059800451531663</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017494168020673</v>
+        <v>1.054947396615801</v>
       </c>
       <c r="D3">
-        <v>1.029214314738234</v>
+        <v>1.053336482996229</v>
       </c>
       <c r="E3">
-        <v>1.025093946348463</v>
+        <v>1.058579903389779</v>
       </c>
       <c r="F3">
-        <v>0.9976367884872597</v>
+        <v>1.054539013005928</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05111789189994</v>
+        <v>1.048467183520795</v>
       </c>
       <c r="J3">
-        <v>1.037519025038735</v>
+        <v>1.059612907994027</v>
       </c>
       <c r="K3">
-        <v>1.039486555634317</v>
+        <v>1.055897841636719</v>
       </c>
       <c r="L3">
-        <v>1.0354155059906</v>
+        <v>1.061127876392949</v>
       </c>
       <c r="M3">
-        <v>1.008299996617699</v>
+        <v>1.057097289088976</v>
       </c>
       <c r="N3">
-        <v>1.038992421059386</v>
+        <v>1.061117679862678</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023536269697994</v>
+        <v>1.056021723291454</v>
       </c>
       <c r="D4">
-        <v>1.034060787138432</v>
+        <v>1.05417937446767</v>
       </c>
       <c r="E4">
-        <v>1.030815710955327</v>
+        <v>1.059623026920053</v>
       </c>
       <c r="F4">
-        <v>1.005455918672306</v>
+        <v>1.056017440773013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053932608407298</v>
+        <v>1.048881772013382</v>
       </c>
       <c r="J4">
-        <v>1.042356493176988</v>
+        <v>1.060458718591526</v>
       </c>
       <c r="K4">
-        <v>1.04376479925466</v>
+        <v>1.05661821832878</v>
       </c>
       <c r="L4">
-        <v>1.040555916554383</v>
+        <v>1.062048683545006</v>
       </c>
       <c r="M4">
-        <v>1.015488938555791</v>
+        <v>1.058451815580914</v>
       </c>
       <c r="N4">
-        <v>1.04383675895726</v>
+        <v>1.061964691608241</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026015138142339</v>
+        <v>1.05647219489016</v>
       </c>
       <c r="D5">
-        <v>1.036048103781131</v>
+        <v>1.054532571193013</v>
       </c>
       <c r="E5">
-        <v>1.033164077126915</v>
+        <v>1.060060467144906</v>
       </c>
       <c r="F5">
-        <v>1.008663192282341</v>
+        <v>1.056637687110602</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055082717680021</v>
+        <v>1.049055085567398</v>
       </c>
       <c r="J5">
-        <v>1.044338147875775</v>
+        <v>1.060813042949542</v>
       </c>
       <c r="K5">
-        <v>1.045515892587253</v>
+        <v>1.056919781235104</v>
       </c>
       <c r="L5">
-        <v>1.042663070964702</v>
+        <v>1.062434588151751</v>
       </c>
       <c r="M5">
-        <v>1.018436166355452</v>
+        <v>1.059019895295478</v>
       </c>
       <c r="N5">
-        <v>1.045821227833017</v>
+        <v>1.062319519147487</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026427902128373</v>
+        <v>1.056547762745771</v>
       </c>
       <c r="D6">
-        <v>1.036378954728688</v>
+        <v>1.054591807246763</v>
       </c>
       <c r="E6">
-        <v>1.033555163131288</v>
+        <v>1.060133852008261</v>
       </c>
       <c r="F6">
-        <v>1.00919722272371</v>
+        <v>1.056741754807033</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055273950290456</v>
+        <v>1.049084128531342</v>
       </c>
       <c r="J6">
-        <v>1.044667942986007</v>
+        <v>1.060872462530907</v>
       </c>
       <c r="K6">
-        <v>1.04580722906034</v>
+        <v>1.056970340178333</v>
       </c>
       <c r="L6">
-        <v>1.043013834212884</v>
+        <v>1.062499313250278</v>
       </c>
       <c r="M6">
-        <v>1.018926804708845</v>
+        <v>1.059115199317159</v>
       </c>
       <c r="N6">
-        <v>1.046151491290135</v>
+        <v>1.062379023111472</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023569626547431</v>
+        <v>1.056027747104445</v>
       </c>
       <c r="D7">
-        <v>1.034087533633738</v>
+        <v>1.054184098414323</v>
       </c>
       <c r="E7">
-        <v>1.030847308132246</v>
+        <v>1.059628876269231</v>
       </c>
       <c r="F7">
-        <v>1.00549907914591</v>
+        <v>1.056025733538908</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053948103409218</v>
+        <v>1.048884091672456</v>
       </c>
       <c r="J7">
-        <v>1.042383171166601</v>
+        <v>1.060463457995429</v>
       </c>
       <c r="K7">
-        <v>1.043788379215835</v>
+        <v>1.056622252848274</v>
       </c>
       <c r="L7">
-        <v>1.040584278541165</v>
+        <v>1.062053844721526</v>
       </c>
       <c r="M7">
-        <v>1.015528605811743</v>
+        <v>1.05845941160538</v>
       </c>
       <c r="N7">
-        <v>1.043863474832679</v>
+        <v>1.061969437742641</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011088788688624</v>
+        <v>1.053844134847235</v>
       </c>
       <c r="D8">
-        <v>1.024073132466759</v>
+        <v>1.052470095630483</v>
       </c>
       <c r="E8">
-        <v>1.019031612306093</v>
+        <v>1.05750886513508</v>
       </c>
       <c r="F8">
-        <v>0.9893435551033825</v>
+        <v>1.053021891216652</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048117504012781</v>
+        <v>1.048039630903881</v>
       </c>
       <c r="J8">
-        <v>1.032380146722178</v>
+        <v>1.058743191415595</v>
       </c>
       <c r="K8">
-        <v>1.034936599787977</v>
+        <v>1.055156368943634</v>
       </c>
       <c r="L8">
-        <v>1.029959814477821</v>
+        <v>1.060181601227694</v>
       </c>
       <c r="M8">
-        <v>1.000669836149266</v>
+        <v>1.05570667523497</v>
       </c>
       <c r="N8">
-        <v>1.033846244946182</v>
+        <v>1.060246728186947</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9866825410739927</v>
+        <v>1.049957082966527</v>
       </c>
       <c r="D9">
-        <v>1.004463716704254</v>
+        <v>1.049411542713679</v>
       </c>
       <c r="E9">
-        <v>0.9959645579861034</v>
+        <v>1.053736746421368</v>
       </c>
       <c r="F9">
-        <v>0.9576727404357003</v>
+        <v>1.047685111514485</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036553794739408</v>
+        <v>1.046519467990766</v>
       </c>
       <c r="J9">
-        <v>1.012714499652501</v>
+        <v>1.055670330180893</v>
       </c>
       <c r="K9">
-        <v>1.017484785985687</v>
+        <v>1.05253098216545</v>
       </c>
       <c r="L9">
-        <v>1.009123448493725</v>
+        <v>1.056842529889278</v>
       </c>
       <c r="M9">
-        <v>0.9714920268503587</v>
+        <v>1.050810036274727</v>
       </c>
       <c r="N9">
-        <v>1.014152670401985</v>
+        <v>1.057169503136829</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.968294915757323</v>
+        <v>1.047337965441378</v>
       </c>
       <c r="D10">
-        <v>0.9896821216377697</v>
+        <v>1.047345694573819</v>
       </c>
       <c r="E10">
-        <v>0.9786192374837479</v>
+        <v>1.05119625190482</v>
       </c>
       <c r="F10">
-        <v>0.9336919515690624</v>
+        <v>1.044095841220334</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027730723966258</v>
+        <v>1.045483786890334</v>
       </c>
       <c r="J10">
-        <v>0.9978254761813268</v>
+        <v>1.053592673785224</v>
       </c>
       <c r="K10">
-        <v>1.004240201447499</v>
+        <v>1.050751240131627</v>
       </c>
       <c r="L10">
-        <v>0.9933855651921616</v>
+        <v>1.054588420433054</v>
       </c>
       <c r="M10">
-        <v>0.9493713385823155</v>
+        <v>1.047512761511578</v>
       </c>
       <c r="N10">
-        <v>0.9992425028096861</v>
+        <v>1.055088896230768</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9596810281760638</v>
+        <v>1.04619697054639</v>
       </c>
       <c r="D11">
-        <v>0.9827586519993577</v>
+        <v>1.046444554816267</v>
       </c>
       <c r="E11">
-        <v>0.9705035072897366</v>
+        <v>1.050089793714729</v>
       </c>
       <c r="F11">
-        <v>0.9224083336308061</v>
+        <v>1.042533727177106</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023571259354587</v>
+        <v>1.045029904949248</v>
       </c>
       <c r="J11">
-        <v>0.9908329372323548</v>
+        <v>1.052685866893463</v>
       </c>
       <c r="K11">
-        <v>0.9980132078953173</v>
+        <v>1.049973365679109</v>
       </c>
       <c r="L11">
-        <v>0.9860039791316054</v>
+        <v>1.053605438108778</v>
       </c>
       <c r="M11">
-        <v>0.9389585214156037</v>
+        <v>1.046076776925966</v>
       </c>
       <c r="N11">
-        <v>0.9922400336533511</v>
+        <v>1.054180801569208</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9563665554059257</v>
+        <v>1.04577209101857</v>
       </c>
       <c r="D12">
-        <v>0.980095120413808</v>
+        <v>1.046108816400454</v>
       </c>
       <c r="E12">
-        <v>0.967382403806981</v>
+        <v>1.049677818151629</v>
       </c>
       <c r="F12">
-        <v>0.9180567108294105</v>
+        <v>1.041952255478086</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021966863511306</v>
+        <v>1.044860485205822</v>
       </c>
       <c r="J12">
-        <v>0.9881396577672177</v>
+        <v>1.052347938842237</v>
       </c>
       <c r="K12">
-        <v>0.9956138671353442</v>
+        <v>1.049683321279959</v>
       </c>
       <c r="L12">
-        <v>0.9831623709840662</v>
+        <v>1.053239248673391</v>
       </c>
       <c r="M12">
-        <v>0.9349423242408673</v>
+        <v>1.045542112006216</v>
       </c>
       <c r="N12">
-        <v>0.9895429294224499</v>
+        <v>1.053842393621389</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9570830421620368</v>
+        <v>1.04586327766443</v>
       </c>
       <c r="D13">
-        <v>0.9806708653085462</v>
+        <v>1.046180879706703</v>
       </c>
       <c r="E13">
-        <v>0.9680570104777202</v>
+        <v>1.049766233412417</v>
       </c>
       <c r="F13">
-        <v>0.9189978891309042</v>
+        <v>1.042077039586424</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022313859696841</v>
+        <v>1.044896863981004</v>
       </c>
       <c r="J13">
-        <v>0.9887219825693232</v>
+        <v>1.052420475683613</v>
       </c>
       <c r="K13">
-        <v>0.9961326780050427</v>
+        <v>1.049745587220458</v>
       </c>
       <c r="L13">
-        <v>0.9837766968155105</v>
+        <v>1.053317846174657</v>
       </c>
       <c r="M13">
-        <v>0.9358109692002398</v>
+        <v>1.045656857817304</v>
       </c>
       <c r="N13">
-        <v>0.9901260811925681</v>
+        <v>1.053915033473399</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.959409510820077</v>
+        <v>1.046161871716986</v>
       </c>
       <c r="D14">
-        <v>0.982540446731861</v>
+        <v>1.046416823404127</v>
       </c>
       <c r="E14">
-        <v>0.9702477951790233</v>
+        <v>1.050055759982164</v>
       </c>
       <c r="F14">
-        <v>0.9220520700705386</v>
+        <v>1.042485687935262</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023439907889685</v>
+        <v>1.045015917621174</v>
       </c>
       <c r="J14">
-        <v>0.9906123613299914</v>
+        <v>1.052657956219363</v>
       </c>
       <c r="K14">
-        <v>0.9978167231394428</v>
+        <v>1.049949413223649</v>
       </c>
       <c r="L14">
-        <v>0.9857712242185452</v>
+        <v>1.053575190660877</v>
       </c>
       <c r="M14">
-        <v>0.9386297252672759</v>
+        <v>1.046032607614767</v>
       </c>
       <c r="N14">
-        <v>0.9920191445079061</v>
+        <v>1.05415285125875</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9608271171950866</v>
+        <v>1.046345703676871</v>
       </c>
       <c r="D15">
-        <v>0.9836797301168292</v>
+        <v>1.046562060963666</v>
       </c>
       <c r="E15">
-        <v>0.9715829509250821</v>
+        <v>1.05023401521609</v>
       </c>
       <c r="F15">
-        <v>0.92391172568091</v>
+        <v>1.04273730505936</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024125543305159</v>
+        <v>1.045089160425265</v>
       </c>
       <c r="J15">
-        <v>0.9917638916278149</v>
+        <v>1.05280412942292</v>
       </c>
       <c r="K15">
-        <v>0.9988424475033393</v>
+        <v>1.050074849824401</v>
       </c>
       <c r="L15">
-        <v>0.9869863975461802</v>
+        <v>1.053733607117855</v>
       </c>
       <c r="M15">
-        <v>0.9403459894515351</v>
+        <v>1.046263949198247</v>
       </c>
       <c r="N15">
-        <v>0.9931723101108347</v>
+        <v>1.054299232045022</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9688515070068898</v>
+        <v>1.047413541883532</v>
       </c>
       <c r="D16">
-        <v>0.9901295342199348</v>
+        <v>1.047405359092497</v>
       </c>
       <c r="E16">
-        <v>0.9791438573068113</v>
+        <v>1.051269546763103</v>
       </c>
       <c r="F16">
-        <v>0.9344198520039805</v>
+        <v>1.044199342921196</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027998958383439</v>
+        <v>1.045513794157531</v>
       </c>
       <c r="J16">
-        <v>0.9982769420525642</v>
+        <v>1.053652702623073</v>
       </c>
       <c r="K16">
-        <v>1.004642110212132</v>
+        <v>1.050802710950954</v>
       </c>
       <c r="L16">
-        <v>0.9938623510249689</v>
+        <v>1.054653509544241</v>
       </c>
       <c r="M16">
-        <v>0.9500429937211313</v>
+        <v>1.047607886189938</v>
       </c>
       <c r="N16">
-        <v>0.9996946098142445</v>
+        <v>1.055149010316452</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9736997917607675</v>
+        <v>1.048081502671864</v>
       </c>
       <c r="D17">
-        <v>0.9940269556689011</v>
+        <v>1.047932552059543</v>
       </c>
       <c r="E17">
-        <v>0.983714762487069</v>
+        <v>1.051917375334676</v>
       </c>
       <c r="F17">
-        <v>0.9407546574608284</v>
+        <v>1.04511428738047</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03033256411449</v>
+        <v>1.045778694296515</v>
       </c>
       <c r="J17">
-        <v>1.002207562828592</v>
+        <v>1.054183055203046</v>
       </c>
       <c r="K17">
-        <v>1.008140530844144</v>
+        <v>1.051257327919152</v>
       </c>
       <c r="L17">
-        <v>0.9980144859385641</v>
+        <v>1.055228665930372</v>
       </c>
       <c r="M17">
-        <v>0.9558878382451257</v>
+        <v>1.048448668943242</v>
       </c>
       <c r="N17">
-        <v>1.003630812522623</v>
+        <v>1.055680116057921</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.976466154756613</v>
+        <v>1.048470448994689</v>
       </c>
       <c r="D18">
-        <v>0.9962508499336791</v>
+        <v>1.048239418112302</v>
       </c>
       <c r="E18">
-        <v>0.9863237504424617</v>
+        <v>1.052294626284493</v>
       </c>
       <c r="F18">
-        <v>0.9443648341848077</v>
+        <v>1.045647196042311</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03166167554</v>
+        <v>1.045932683482693</v>
       </c>
       <c r="J18">
-        <v>1.004448702533447</v>
+        <v>1.054491710836963</v>
       </c>
       <c r="K18">
-        <v>1.01013461393056</v>
+        <v>1.051521801677933</v>
       </c>
       <c r="L18">
-        <v>1.0003828047609</v>
+        <v>1.055563477115891</v>
       </c>
       <c r="M18">
-        <v>0.9592183629936063</v>
+        <v>1.048938290573691</v>
       </c>
       <c r="N18">
-        <v>1.005875134902921</v>
+        <v>1.055989210018242</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9773994180826915</v>
+        <v>1.04860295782891</v>
       </c>
       <c r="D19">
-        <v>0.9970011106708961</v>
+        <v>1.048343944153381</v>
       </c>
       <c r="E19">
-        <v>0.9872040679178186</v>
+        <v>1.052423155294548</v>
       </c>
       <c r="F19">
-        <v>0.9455820855937517</v>
+        <v>1.045828775933254</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032109656268321</v>
+        <v>1.045985101557959</v>
       </c>
       <c r="J19">
-        <v>1.005204502233566</v>
+        <v>1.054596838067895</v>
       </c>
       <c r="K19">
-        <v>1.010806987831902</v>
+        <v>1.051611862844494</v>
       </c>
       <c r="L19">
-        <v>1.001181641190442</v>
+        <v>1.055677526517265</v>
       </c>
       <c r="M19">
-        <v>0.9603412450495431</v>
+        <v>1.049105105575064</v>
       </c>
       <c r="N19">
-        <v>1.006632007925306</v>
+        <v>1.0560944865419</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9731860927989376</v>
+        <v>1.048009905662987</v>
       </c>
       <c r="D20">
-        <v>0.9936139947741072</v>
+        <v>1.047876055252284</v>
       </c>
       <c r="E20">
-        <v>0.9832303586974943</v>
+        <v>1.051847933407566</v>
       </c>
       <c r="F20">
-        <v>0.9400839255909658</v>
+        <v>1.045016201707927</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030085558735669</v>
+        <v>1.045750327163232</v>
       </c>
       <c r="J20">
-        <v>1.001791263591648</v>
+        <v>1.054126224929087</v>
       </c>
       <c r="K20">
-        <v>1.007770071582841</v>
+        <v>1.051208624022414</v>
       </c>
       <c r="L20">
-        <v>0.9975746337290157</v>
+        <v>1.055167026337705</v>
       </c>
       <c r="M20">
-        <v>0.9552690264910704</v>
+        <v>1.048358543178751</v>
       </c>
       <c r="N20">
-        <v>1.003213922093012</v>
+        <v>1.055623205078455</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9587277542116225</v>
+        <v>1.046073972776752</v>
       </c>
       <c r="D21">
-        <v>0.9819925613842483</v>
+        <v>1.046347372057573</v>
       </c>
       <c r="E21">
-        <v>0.9696057519426113</v>
+        <v>1.049970529093324</v>
       </c>
       <c r="F21">
-        <v>0.9211573552816983</v>
+        <v>1.042365385548131</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023110033281858</v>
+        <v>1.044980882245399</v>
       </c>
       <c r="J21">
-        <v>0.9900584713999127</v>
+        <v>1.052588054658932</v>
       </c>
       <c r="K21">
-        <v>0.9973233142797241</v>
+        <v>1.049889422274584</v>
       </c>
       <c r="L21">
-        <v>0.9851867760633967</v>
+        <v>1.053499438743547</v>
       </c>
       <c r="M21">
-        <v>0.9378039862390131</v>
+        <v>1.045921994204613</v>
       </c>
       <c r="N21">
-        <v>0.9914644679905945</v>
+        <v>1.054082850430085</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9489604162591216</v>
+        <v>1.044850609968144</v>
       </c>
       <c r="D22">
-        <v>0.9741448630479252</v>
+        <v>1.045380345042396</v>
       </c>
       <c r="E22">
-        <v>0.9604117474709502</v>
+        <v>1.048784403076564</v>
       </c>
       <c r="F22">
-        <v>0.9083112660145336</v>
+        <v>1.040691557894617</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018374639333154</v>
+        <v>1.044492305949719</v>
       </c>
       <c r="J22">
-        <v>0.9821165531555512</v>
+        <v>1.051614572526308</v>
       </c>
       <c r="K22">
-        <v>0.9902465248382422</v>
+        <v>1.049053571602112</v>
       </c>
       <c r="L22">
-        <v>0.9768104769012022</v>
+        <v>1.05244478049386</v>
       </c>
       <c r="M22">
-        <v>0.9259476788646204</v>
+        <v>1.044382635602963</v>
       </c>
       <c r="N22">
-        <v>0.9835112713113754</v>
+        <v>1.053107985841173</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9542093637145858</v>
+        <v>1.045499731105658</v>
       </c>
       <c r="D23">
-        <v>0.9783617757338173</v>
+        <v>1.045893549232011</v>
       </c>
       <c r="E23">
-        <v>0.9653515697380461</v>
+        <v>1.049413742299693</v>
       </c>
       <c r="F23">
-        <v>0.915221338781672</v>
+        <v>1.041579577496662</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020921560237799</v>
+        <v>1.044751768366531</v>
       </c>
       <c r="J23">
-        <v>0.9863860047866649</v>
+        <v>1.052131245624276</v>
       </c>
       <c r="K23">
-        <v>0.9940513578361031</v>
+        <v>1.049497286903332</v>
       </c>
       <c r="L23">
-        <v>0.9813125773944745</v>
+        <v>1.05300446855802</v>
       </c>
       <c r="M23">
-        <v>0.9323254298650921</v>
+        <v>1.045199393315448</v>
       </c>
       <c r="N23">
-        <v>0.9877867860535181</v>
+        <v>1.053625392674203</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9734184002516146</v>
+        <v>1.048042259320016</v>
       </c>
       <c r="D24">
-        <v>0.9938007457383395</v>
+        <v>1.047901585694271</v>
       </c>
       <c r="E24">
-        <v>0.9834494153710511</v>
+        <v>1.051879313129491</v>
       </c>
       <c r="F24">
-        <v>0.9403872607045287</v>
+        <v>1.045060524757272</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030197268235938</v>
+        <v>1.04576314666405</v>
       </c>
       <c r="J24">
-        <v>1.001979529506842</v>
+        <v>1.054151906215143</v>
       </c>
       <c r="K24">
-        <v>1.007937608928137</v>
+        <v>1.051230633368788</v>
       </c>
       <c r="L24">
-        <v>0.997773548437647</v>
+        <v>1.055194880679103</v>
       </c>
       <c r="M24">
-        <v>0.9555488823389093</v>
+        <v>1.048399269580356</v>
       </c>
       <c r="N24">
-        <v>1.0034024553674</v>
+        <v>1.055648922834882</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9933230066551637</v>
+        <v>1.050966769016584</v>
       </c>
       <c r="D25">
-        <v>1.0098011724003</v>
+        <v>1.050206897071066</v>
       </c>
       <c r="E25">
-        <v>1.002235646988591</v>
+        <v>1.05471637261193</v>
       </c>
       <c r="F25">
-        <v>0.9663043148519295</v>
+        <v>1.049070179606773</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03971853074209</v>
+        <v>1.046916338292333</v>
       </c>
       <c r="J25">
-        <v>1.018077186772394</v>
+        <v>1.056469778352333</v>
       </c>
       <c r="K25">
-        <v>1.022249219514074</v>
+        <v>1.053214827420182</v>
       </c>
       <c r="L25">
-        <v>1.014799356270176</v>
+        <v>1.05771061616944</v>
       </c>
       <c r="M25">
-        <v>0.9794492503257175</v>
+        <v>1.052081580282259</v>
       </c>
       <c r="N25">
-        <v>1.019522973152696</v>
+        <v>1.057970086616371</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_128/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053279369324243</v>
+        <v>1.007726909659709</v>
       </c>
       <c r="D2">
-        <v>1.052026283836328</v>
+        <v>1.02137362868094</v>
       </c>
       <c r="E2">
-        <v>1.056960664408924</v>
+        <v>1.015851191325141</v>
       </c>
       <c r="F2">
-        <v>1.05224569416336</v>
+        <v>0.9849885429838092</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047820075865529</v>
+        <v>1.046536455291536</v>
       </c>
       <c r="J2">
-        <v>1.058297547625609</v>
+        <v>1.029678941057487</v>
       </c>
       <c r="K2">
-        <v>1.054776156228006</v>
+        <v>1.03254301399596</v>
       </c>
       <c r="L2">
-        <v>1.059696942303818</v>
+        <v>1.027094024020259</v>
       </c>
       <c r="M2">
-        <v>1.054994959132021</v>
+        <v>0.9966610500342508</v>
       </c>
       <c r="N2">
-        <v>1.059800451531663</v>
+        <v>1.031141203259613</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054947396615801</v>
+        <v>1.017494168020671</v>
       </c>
       <c r="D3">
-        <v>1.053336482996229</v>
+        <v>1.029214314738232</v>
       </c>
       <c r="E3">
-        <v>1.058579903389779</v>
+        <v>1.02509394634846</v>
       </c>
       <c r="F3">
-        <v>1.054539013005928</v>
+        <v>0.9976367884872571</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048467183520795</v>
+        <v>1.051117891899939</v>
       </c>
       <c r="J3">
-        <v>1.059612907994027</v>
+        <v>1.037519025038734</v>
       </c>
       <c r="K3">
-        <v>1.055897841636719</v>
+        <v>1.039486555634316</v>
       </c>
       <c r="L3">
-        <v>1.061127876392949</v>
+        <v>1.035415505990598</v>
       </c>
       <c r="M3">
-        <v>1.057097289088976</v>
+        <v>1.008299996617696</v>
       </c>
       <c r="N3">
-        <v>1.061117679862678</v>
+        <v>1.038992421059384</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056021723291454</v>
+        <v>1.023536269697994</v>
       </c>
       <c r="D4">
-        <v>1.05417937446767</v>
+        <v>1.034060787138432</v>
       </c>
       <c r="E4">
-        <v>1.059623026920053</v>
+        <v>1.030815710955326</v>
       </c>
       <c r="F4">
-        <v>1.056017440773013</v>
+        <v>1.005455918672306</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048881772013382</v>
+        <v>1.053932608407298</v>
       </c>
       <c r="J4">
-        <v>1.060458718591526</v>
+        <v>1.042356493176987</v>
       </c>
       <c r="K4">
-        <v>1.05661821832878</v>
+        <v>1.04376479925466</v>
       </c>
       <c r="L4">
-        <v>1.062048683545006</v>
+        <v>1.040555916554382</v>
       </c>
       <c r="M4">
-        <v>1.058451815580914</v>
+        <v>1.015488938555791</v>
       </c>
       <c r="N4">
-        <v>1.061964691608241</v>
+        <v>1.043836758957259</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05647219489016</v>
+        <v>1.026015138142337</v>
       </c>
       <c r="D5">
-        <v>1.054532571193013</v>
+        <v>1.03604810378113</v>
       </c>
       <c r="E5">
-        <v>1.060060467144906</v>
+        <v>1.033164077126913</v>
       </c>
       <c r="F5">
-        <v>1.056637687110602</v>
+        <v>1.00866319228234</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049055085567398</v>
+        <v>1.055082717680021</v>
       </c>
       <c r="J5">
-        <v>1.060813042949542</v>
+        <v>1.044338147875773</v>
       </c>
       <c r="K5">
-        <v>1.056919781235104</v>
+        <v>1.045515892587251</v>
       </c>
       <c r="L5">
-        <v>1.062434588151751</v>
+        <v>1.0426630709647</v>
       </c>
       <c r="M5">
-        <v>1.059019895295478</v>
+        <v>1.018436166355451</v>
       </c>
       <c r="N5">
-        <v>1.062319519147487</v>
+        <v>1.045821227833016</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056547762745771</v>
+        <v>1.026427902128372</v>
       </c>
       <c r="D6">
-        <v>1.054591807246763</v>
+        <v>1.036378954728687</v>
       </c>
       <c r="E6">
-        <v>1.060133852008261</v>
+        <v>1.033555163131287</v>
       </c>
       <c r="F6">
-        <v>1.056741754807033</v>
+        <v>1.00919722272371</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049084128531342</v>
+        <v>1.055273950290455</v>
       </c>
       <c r="J6">
-        <v>1.060872462530907</v>
+        <v>1.044667942986006</v>
       </c>
       <c r="K6">
-        <v>1.056970340178333</v>
+        <v>1.045807229060339</v>
       </c>
       <c r="L6">
-        <v>1.062499313250278</v>
+        <v>1.043013834212883</v>
       </c>
       <c r="M6">
-        <v>1.059115199317159</v>
+        <v>1.018926804708844</v>
       </c>
       <c r="N6">
-        <v>1.062379023111472</v>
+        <v>1.046151491290133</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056027747104445</v>
+        <v>1.023569626547433</v>
       </c>
       <c r="D7">
-        <v>1.054184098414323</v>
+        <v>1.03408753363374</v>
       </c>
       <c r="E7">
-        <v>1.059628876269231</v>
+        <v>1.030847308132248</v>
       </c>
       <c r="F7">
-        <v>1.056025733538908</v>
+        <v>1.005499079145912</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048884091672456</v>
+        <v>1.053948103409219</v>
       </c>
       <c r="J7">
-        <v>1.060463457995429</v>
+        <v>1.042383171166603</v>
       </c>
       <c r="K7">
-        <v>1.056622252848274</v>
+        <v>1.043788379215836</v>
       </c>
       <c r="L7">
-        <v>1.062053844721526</v>
+        <v>1.040584278541167</v>
       </c>
       <c r="M7">
-        <v>1.05845941160538</v>
+        <v>1.015528605811746</v>
       </c>
       <c r="N7">
-        <v>1.061969437742641</v>
+        <v>1.04386347483268</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053844134847235</v>
+        <v>1.011088788688624</v>
       </c>
       <c r="D8">
-        <v>1.052470095630483</v>
+        <v>1.024073132466759</v>
       </c>
       <c r="E8">
-        <v>1.05750886513508</v>
+        <v>1.019031612306093</v>
       </c>
       <c r="F8">
-        <v>1.053021891216652</v>
+        <v>0.989343555103382</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048039630903881</v>
+        <v>1.048117504012781</v>
       </c>
       <c r="J8">
-        <v>1.058743191415595</v>
+        <v>1.032380146722178</v>
       </c>
       <c r="K8">
-        <v>1.055156368943634</v>
+        <v>1.034936599787978</v>
       </c>
       <c r="L8">
-        <v>1.060181601227694</v>
+        <v>1.029959814477821</v>
       </c>
       <c r="M8">
-        <v>1.05570667523497</v>
+        <v>1.000669836149265</v>
       </c>
       <c r="N8">
-        <v>1.060246728186947</v>
+        <v>1.033846244946182</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049957082966527</v>
+        <v>0.9866825410739897</v>
       </c>
       <c r="D9">
-        <v>1.049411542713679</v>
+        <v>1.004463716704251</v>
       </c>
       <c r="E9">
-        <v>1.053736746421368</v>
+        <v>0.9959645579861002</v>
       </c>
       <c r="F9">
-        <v>1.047685111514485</v>
+        <v>0.9576727404356971</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046519467990766</v>
+        <v>1.036553794739406</v>
       </c>
       <c r="J9">
-        <v>1.055670330180893</v>
+        <v>1.012714499652499</v>
       </c>
       <c r="K9">
-        <v>1.05253098216545</v>
+        <v>1.017484785985685</v>
       </c>
       <c r="L9">
-        <v>1.056842529889278</v>
+        <v>1.009123448493723</v>
       </c>
       <c r="M9">
-        <v>1.050810036274727</v>
+        <v>0.9714920268503557</v>
       </c>
       <c r="N9">
-        <v>1.057169503136829</v>
+        <v>1.014152670401982</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047337965441378</v>
+        <v>0.9682949157573248</v>
       </c>
       <c r="D10">
-        <v>1.047345694573819</v>
+        <v>0.9896821216377714</v>
       </c>
       <c r="E10">
-        <v>1.05119625190482</v>
+        <v>0.9786192374837497</v>
       </c>
       <c r="F10">
-        <v>1.044095841220334</v>
+        <v>0.9336919515690646</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045483786890334</v>
+        <v>1.02773072396626</v>
       </c>
       <c r="J10">
-        <v>1.053592673785224</v>
+        <v>0.9978254761813283</v>
       </c>
       <c r="K10">
-        <v>1.050751240131627</v>
+        <v>1.004240201447501</v>
       </c>
       <c r="L10">
-        <v>1.054588420433054</v>
+        <v>0.9933855651921633</v>
       </c>
       <c r="M10">
-        <v>1.047512761511578</v>
+        <v>0.9493713385823178</v>
       </c>
       <c r="N10">
-        <v>1.055088896230768</v>
+        <v>0.9992425028096878</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04619697054639</v>
+        <v>0.9596810281760648</v>
       </c>
       <c r="D11">
-        <v>1.046444554816267</v>
+        <v>0.9827586519993585</v>
       </c>
       <c r="E11">
-        <v>1.050089793714729</v>
+        <v>0.9705035072897378</v>
       </c>
       <c r="F11">
-        <v>1.042533727177106</v>
+        <v>0.9224083336308081</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045029904949248</v>
+        <v>1.023571259354588</v>
       </c>
       <c r="J11">
-        <v>1.052685866893463</v>
+        <v>0.9908329372323558</v>
       </c>
       <c r="K11">
-        <v>1.049973365679109</v>
+        <v>0.9980132078953182</v>
       </c>
       <c r="L11">
-        <v>1.053605438108778</v>
+        <v>0.9860039791316064</v>
       </c>
       <c r="M11">
-        <v>1.046076776925966</v>
+        <v>0.9389585214156052</v>
       </c>
       <c r="N11">
-        <v>1.054180801569208</v>
+        <v>0.9922400336533521</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04577209101857</v>
+        <v>0.9563665554059267</v>
       </c>
       <c r="D12">
-        <v>1.046108816400454</v>
+        <v>0.980095120413809</v>
       </c>
       <c r="E12">
-        <v>1.049677818151629</v>
+        <v>0.967382403806982</v>
       </c>
       <c r="F12">
-        <v>1.041952255478086</v>
+        <v>0.9180567108294105</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044860485205822</v>
+        <v>1.021966863511307</v>
       </c>
       <c r="J12">
-        <v>1.052347938842237</v>
+        <v>0.9881396577672186</v>
       </c>
       <c r="K12">
-        <v>1.049683321279959</v>
+        <v>0.9956138671353451</v>
       </c>
       <c r="L12">
-        <v>1.053239248673391</v>
+        <v>0.9831623709840671</v>
       </c>
       <c r="M12">
-        <v>1.045542112006216</v>
+        <v>0.9349423242408673</v>
       </c>
       <c r="N12">
-        <v>1.053842393621389</v>
+        <v>0.9895429294224509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04586327766443</v>
+        <v>0.9570830421620397</v>
       </c>
       <c r="D13">
-        <v>1.046180879706703</v>
+        <v>0.9806708653085485</v>
       </c>
       <c r="E13">
-        <v>1.049766233412417</v>
+        <v>0.9680570104777234</v>
       </c>
       <c r="F13">
-        <v>1.042077039586424</v>
+        <v>0.9189978891309073</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044896863981004</v>
+        <v>1.022313859696843</v>
       </c>
       <c r="J13">
-        <v>1.052420475683613</v>
+        <v>0.988721982569326</v>
       </c>
       <c r="K13">
-        <v>1.049745587220458</v>
+        <v>0.9961326780050452</v>
       </c>
       <c r="L13">
-        <v>1.053317846174657</v>
+        <v>0.9837766968155136</v>
       </c>
       <c r="M13">
-        <v>1.045656857817304</v>
+        <v>0.9358109692002426</v>
       </c>
       <c r="N13">
-        <v>1.053915033473399</v>
+        <v>0.9901260811925711</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046161871716986</v>
+        <v>0.9594095108200793</v>
       </c>
       <c r="D14">
-        <v>1.046416823404127</v>
+        <v>0.9825404467318632</v>
       </c>
       <c r="E14">
-        <v>1.050055759982164</v>
+        <v>0.9702477951790259</v>
       </c>
       <c r="F14">
-        <v>1.042485687935262</v>
+        <v>0.9220520700705411</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045015917621174</v>
+        <v>1.023439907889686</v>
       </c>
       <c r="J14">
-        <v>1.052657956219363</v>
+        <v>0.990612361329994</v>
       </c>
       <c r="K14">
-        <v>1.049949413223649</v>
+        <v>0.9978167231394448</v>
       </c>
       <c r="L14">
-        <v>1.053575190660877</v>
+        <v>0.9857712242185481</v>
       </c>
       <c r="M14">
-        <v>1.046032607614767</v>
+        <v>0.9386297252672785</v>
       </c>
       <c r="N14">
-        <v>1.05415285125875</v>
+        <v>0.9920191445079085</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046345703676871</v>
+        <v>0.9608271171950863</v>
       </c>
       <c r="D15">
-        <v>1.046562060963666</v>
+        <v>0.9836797301168289</v>
       </c>
       <c r="E15">
-        <v>1.05023401521609</v>
+        <v>0.9715829509250822</v>
       </c>
       <c r="F15">
-        <v>1.04273730505936</v>
+        <v>0.92391172568091</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045089160425265</v>
+        <v>1.024125543305159</v>
       </c>
       <c r="J15">
-        <v>1.05280412942292</v>
+        <v>0.9917638916278145</v>
       </c>
       <c r="K15">
-        <v>1.050074849824401</v>
+        <v>0.9988424475033389</v>
       </c>
       <c r="L15">
-        <v>1.053733607117855</v>
+        <v>0.9869863975461801</v>
       </c>
       <c r="M15">
-        <v>1.046263949198247</v>
+        <v>0.9403459894515352</v>
       </c>
       <c r="N15">
-        <v>1.054299232045022</v>
+        <v>0.9931723101108344</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.047413541883532</v>
+        <v>0.9688515070068887</v>
       </c>
       <c r="D16">
-        <v>1.047405359092497</v>
+        <v>0.9901295342199338</v>
       </c>
       <c r="E16">
-        <v>1.051269546763103</v>
+        <v>0.9791438573068098</v>
       </c>
       <c r="F16">
-        <v>1.044199342921196</v>
+        <v>0.9344198520039791</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045513794157531</v>
+        <v>1.027998958383439</v>
       </c>
       <c r="J16">
-        <v>1.053652702623073</v>
+        <v>0.998276942052563</v>
       </c>
       <c r="K16">
-        <v>1.050802710950954</v>
+        <v>1.004642110212131</v>
       </c>
       <c r="L16">
-        <v>1.054653509544241</v>
+        <v>0.9938623510249676</v>
       </c>
       <c r="M16">
-        <v>1.047607886189938</v>
+        <v>0.9500429937211303</v>
       </c>
       <c r="N16">
-        <v>1.055149010316452</v>
+        <v>0.9996946098142435</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048081502671864</v>
+        <v>0.973699791760769</v>
       </c>
       <c r="D17">
-        <v>1.047932552059543</v>
+        <v>0.9940269556689026</v>
       </c>
       <c r="E17">
-        <v>1.051917375334676</v>
+        <v>0.9837147624870706</v>
       </c>
       <c r="F17">
-        <v>1.04511428738047</v>
+        <v>0.9407546574608298</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045778694296515</v>
+        <v>1.030332564114492</v>
       </c>
       <c r="J17">
-        <v>1.054183055203046</v>
+        <v>1.002207562828594</v>
       </c>
       <c r="K17">
-        <v>1.051257327919152</v>
+        <v>1.008140530844146</v>
       </c>
       <c r="L17">
-        <v>1.055228665930372</v>
+        <v>0.9980144859385658</v>
       </c>
       <c r="M17">
-        <v>1.048448668943242</v>
+        <v>0.9558878382451272</v>
       </c>
       <c r="N17">
-        <v>1.055680116057921</v>
+        <v>1.003630812522624</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048470448994689</v>
+        <v>0.9764661547566117</v>
       </c>
       <c r="D18">
-        <v>1.048239418112302</v>
+        <v>0.9962508499336777</v>
       </c>
       <c r="E18">
-        <v>1.052294626284493</v>
+        <v>0.9863237504424602</v>
       </c>
       <c r="F18">
-        <v>1.045647196042311</v>
+        <v>0.9443648341848061</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045932683482693</v>
+        <v>1.031661675539999</v>
       </c>
       <c r="J18">
-        <v>1.054491710836963</v>
+        <v>1.004448702533446</v>
       </c>
       <c r="K18">
-        <v>1.051521801677933</v>
+        <v>1.010134613930559</v>
       </c>
       <c r="L18">
-        <v>1.055563477115891</v>
+        <v>1.000382804760898</v>
       </c>
       <c r="M18">
-        <v>1.048938290573691</v>
+        <v>0.959218362993605</v>
       </c>
       <c r="N18">
-        <v>1.055989210018242</v>
+        <v>1.00587513490292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04860295782891</v>
+        <v>0.9773994180826884</v>
       </c>
       <c r="D19">
-        <v>1.048343944153381</v>
+        <v>0.9970011106708935</v>
       </c>
       <c r="E19">
-        <v>1.052423155294548</v>
+        <v>0.987204067917815</v>
       </c>
       <c r="F19">
-        <v>1.045828775933254</v>
+        <v>0.9455820855937489</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045985101557959</v>
+        <v>1.032109656268319</v>
       </c>
       <c r="J19">
-        <v>1.054596838067895</v>
+        <v>1.005204502233564</v>
       </c>
       <c r="K19">
-        <v>1.051611862844494</v>
+        <v>1.0108069878319</v>
       </c>
       <c r="L19">
-        <v>1.055677526517265</v>
+        <v>1.001181641190438</v>
       </c>
       <c r="M19">
-        <v>1.049105105575064</v>
+        <v>0.9603412450495404</v>
       </c>
       <c r="N19">
-        <v>1.0560944865419</v>
+        <v>1.006632007925303</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048009905662987</v>
+        <v>0.9731860927989386</v>
       </c>
       <c r="D20">
-        <v>1.047876055252284</v>
+        <v>0.9936139947741079</v>
       </c>
       <c r="E20">
-        <v>1.051847933407566</v>
+        <v>0.9832303586974954</v>
       </c>
       <c r="F20">
-        <v>1.045016201707927</v>
+        <v>0.9400839255909671</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045750327163232</v>
+        <v>1.03008555873567</v>
       </c>
       <c r="J20">
-        <v>1.054126224929087</v>
+        <v>1.001791263591649</v>
       </c>
       <c r="K20">
-        <v>1.051208624022414</v>
+        <v>1.007770071582841</v>
       </c>
       <c r="L20">
-        <v>1.055167026337705</v>
+        <v>0.9975746337290169</v>
       </c>
       <c r="M20">
-        <v>1.048358543178751</v>
+        <v>0.9552690264910716</v>
       </c>
       <c r="N20">
-        <v>1.055623205078455</v>
+        <v>1.003213922093013</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.046073972776752</v>
+        <v>0.9587277542116224</v>
       </c>
       <c r="D21">
-        <v>1.046347372057573</v>
+        <v>0.9819925613842482</v>
       </c>
       <c r="E21">
-        <v>1.049970529093324</v>
+        <v>0.9696057519426109</v>
       </c>
       <c r="F21">
-        <v>1.042365385548131</v>
+        <v>0.9211573552816975</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044980882245399</v>
+        <v>1.023110033281858</v>
       </c>
       <c r="J21">
-        <v>1.052588054658932</v>
+        <v>0.9900584713999124</v>
       </c>
       <c r="K21">
-        <v>1.049889422274584</v>
+        <v>0.9973233142797241</v>
       </c>
       <c r="L21">
-        <v>1.053499438743547</v>
+        <v>0.9851867760633962</v>
       </c>
       <c r="M21">
-        <v>1.045921994204613</v>
+        <v>0.9378039862390124</v>
       </c>
       <c r="N21">
-        <v>1.054082850430085</v>
+        <v>0.9914644679905942</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044850609968144</v>
+        <v>0.9489604162591209</v>
       </c>
       <c r="D22">
-        <v>1.045380345042396</v>
+        <v>0.9741448630479245</v>
       </c>
       <c r="E22">
-        <v>1.048784403076564</v>
+        <v>0.9604117474709496</v>
       </c>
       <c r="F22">
-        <v>1.040691557894617</v>
+        <v>0.9083112660145325</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044492305949719</v>
+        <v>1.018374639333154</v>
       </c>
       <c r="J22">
-        <v>1.051614572526308</v>
+        <v>0.9821165531555505</v>
       </c>
       <c r="K22">
-        <v>1.049053571602112</v>
+        <v>0.9902465248382412</v>
       </c>
       <c r="L22">
-        <v>1.05244478049386</v>
+        <v>0.9768104769012016</v>
       </c>
       <c r="M22">
-        <v>1.044382635602963</v>
+        <v>0.9259476788646193</v>
       </c>
       <c r="N22">
-        <v>1.053107985841173</v>
+        <v>0.9835112713113744</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.045499731105658</v>
+        <v>0.9542093637145839</v>
       </c>
       <c r="D23">
-        <v>1.045893549232011</v>
+        <v>0.9783617757338156</v>
       </c>
       <c r="E23">
-        <v>1.049413742299693</v>
+        <v>0.9653515697380441</v>
       </c>
       <c r="F23">
-        <v>1.041579577496662</v>
+        <v>0.91522133878167</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044751768366531</v>
+        <v>1.020921560237797</v>
       </c>
       <c r="J23">
-        <v>1.052131245624276</v>
+        <v>0.9863860047866633</v>
       </c>
       <c r="K23">
-        <v>1.049497286903332</v>
+        <v>0.9940513578361012</v>
       </c>
       <c r="L23">
-        <v>1.05300446855802</v>
+        <v>0.9813125773944728</v>
       </c>
       <c r="M23">
-        <v>1.045199393315448</v>
+        <v>0.9323254298650905</v>
       </c>
       <c r="N23">
-        <v>1.053625392674203</v>
+        <v>0.9877867860535166</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048042259320016</v>
+        <v>0.9734184002516165</v>
       </c>
       <c r="D24">
-        <v>1.047901585694271</v>
+        <v>0.9938007457383412</v>
       </c>
       <c r="E24">
-        <v>1.051879313129491</v>
+        <v>0.9834494153710531</v>
       </c>
       <c r="F24">
-        <v>1.045060524757272</v>
+        <v>0.9403872607045315</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04576314666405</v>
+        <v>1.03019726823594</v>
       </c>
       <c r="J24">
-        <v>1.054151906215143</v>
+        <v>1.001979529506844</v>
       </c>
       <c r="K24">
-        <v>1.051230633368788</v>
+        <v>1.007937608928139</v>
       </c>
       <c r="L24">
-        <v>1.055194880679103</v>
+        <v>0.9977735484376486</v>
       </c>
       <c r="M24">
-        <v>1.048399269580356</v>
+        <v>0.9555488823389119</v>
       </c>
       <c r="N24">
-        <v>1.055648922834882</v>
+        <v>1.003402455367402</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050966769016584</v>
+        <v>0.9933230066551645</v>
       </c>
       <c r="D25">
-        <v>1.050206897071066</v>
+        <v>1.0098011724003</v>
       </c>
       <c r="E25">
-        <v>1.05471637261193</v>
+        <v>1.002235646988592</v>
       </c>
       <c r="F25">
-        <v>1.049070179606773</v>
+        <v>0.9663043148519302</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046916338292333</v>
+        <v>1.039718530742091</v>
       </c>
       <c r="J25">
-        <v>1.056469778352333</v>
+        <v>1.018077186772395</v>
       </c>
       <c r="K25">
-        <v>1.053214827420182</v>
+        <v>1.022249219514075</v>
       </c>
       <c r="L25">
-        <v>1.05771061616944</v>
+        <v>1.014799356270176</v>
       </c>
       <c r="M25">
-        <v>1.052081580282259</v>
+        <v>0.9794492503257183</v>
       </c>
       <c r="N25">
-        <v>1.057970086616371</v>
+        <v>1.019522973152697</v>
       </c>
     </row>
   </sheetData>
